--- a/public/Reporte_de_Kardex_Fisico_Valorado.xlsx
+++ b/public/Reporte_de_Kardex_Fisico_Valorado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>KARDEX FISICO VALORADO</t>
   </si>
@@ -32,10 +32,10 @@
     <t>UNIDAD</t>
   </si>
   <si>
-    <t>PIZZA MARGARITA (TAMAÑO: MEDIANA)</t>
-  </si>
-  <si>
-    <t>Unidad</t>
+    <t>CHAMPIÑONES (EN LATA 400 GRAMOS)</t>
+  </si>
+  <si>
+    <t>Gramo</t>
   </si>
   <si>
     <t>FECHA</t>
@@ -80,13 +80,16 @@
     <t>Entrada</t>
   </si>
   <si>
-    <t>Compara de pizzas congeladas prefabricadas.</t>
+    <t>Compra de champiñones para preparación de pizzas</t>
+  </si>
+  <si>
+    <t>Compra de champiñones por abastecimiento.</t>
   </si>
   <si>
     <t>Salida</t>
   </si>
   <si>
-    <t>Consumo en cocina para recalentado de pizzas.</t>
+    <t>Consumo en cocina para elaboración de pizzas.</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -545,10 +548,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A12" sqref="A12:M12"/>
+      <selection activeCell="A16" sqref="A16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -604,7 +607,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -686,16 +689,16 @@
         <v>21</v>
       </c>
       <c r="D8" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="F8" s="5">
-        <v>27.5</v>
+        <v>10.0</v>
       </c>
       <c r="G8" s="5">
-        <v>550.0</v>
+        <v>100.0</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -707,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="L8" s="6">
-        <v>27.5</v>
+        <v>10.0</v>
       </c>
       <c r="M8" s="6">
-        <v>550.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -724,37 +727,37 @@
         <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8.7</v>
+      </c>
+      <c r="G9" s="5">
+        <v>87.0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>20.0</v>
       </c>
-      <c r="F9" s="5">
-        <v>23.925</v>
-      </c>
-      <c r="G9" s="5">
-        <v>478.5</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>40.0</v>
-      </c>
       <c r="L9" s="6">
-        <v>25.7125</v>
+        <v>9.35</v>
       </c>
       <c r="M9" s="6">
-        <v>1028.5</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -762,13 +765,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -783,19 +786,19 @@
         <v>5.0</v>
       </c>
       <c r="I10" s="7">
-        <v>25.7125</v>
+        <v>9.35</v>
       </c>
       <c r="J10" s="7">
-        <v>128.563</v>
+        <v>46.75</v>
       </c>
       <c r="K10" s="6">
-        <v>35.0</v>
+        <v>15.0</v>
       </c>
       <c r="L10" s="6">
-        <v>25.712485714286</v>
+        <v>9.35</v>
       </c>
       <c r="M10" s="6">
-        <v>899.937</v>
+        <v>140.25</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -806,19 +809,19 @@
         <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="F11" s="5">
-        <v>31.9</v>
+        <v>12.0</v>
       </c>
       <c r="G11" s="5">
-        <v>478.5</v>
+        <v>120.0</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -830,43 +833,207 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
       <c r="L11" s="6">
-        <v>27.56874</v>
+        <v>10.41</v>
       </c>
       <c r="M11" s="6">
-        <v>1378.437</v>
+        <v>260.25</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9">
-        <f>SUM(E8:E12)</f>
-        <v>55</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
-        <f>SUM(G8:G12)</f>
-        <v>1507</v>
-      </c>
-      <c r="H12" s="9">
-        <f>SUM(H8:H12)</f>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7.0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10.41</v>
+      </c>
+      <c r="J12" s="7">
+        <v>72.87</v>
+      </c>
+      <c r="K12" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>10.41</v>
+      </c>
+      <c r="M12" s="6">
+        <v>187.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>14.444444</v>
+      </c>
+      <c r="G13" s="5">
+        <v>130.0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>11.754814814815</v>
+      </c>
+      <c r="M13" s="6">
+        <v>317.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4">
         <v>5</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9">
-        <f>SUM(J8:J12)</f>
-        <v>128.563</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="E14" s="5">
+        <v>80.0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3.860625</v>
+      </c>
+      <c r="G14" s="5">
+        <v>308.85</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>107.0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>5.8526168224299</v>
+      </c>
+      <c r="M14" s="6">
+        <v>626.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>17.0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5.852617</v>
+      </c>
+      <c r="J15" s="7">
+        <v>99.494</v>
+      </c>
+      <c r="K15" s="6">
+        <v>90.0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>5.8526222222222</v>
+      </c>
+      <c r="M15" s="6">
+        <v>526.736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9">
+        <f>SUM(E8:E16)</f>
+        <v>119</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
+        <f>SUM(G8:G16)</f>
+        <v>745.85</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H8:H16)</f>
+        <v>29</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9">
+        <f>SUM(J8:J16)</f>
+        <v>219.114</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -879,7 +1046,7 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
